--- a/ol-handback/OpenLocalizationTest/oltest/yufeih/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/yufeih/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -64,28 +64,40 @@
     <t>9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.75fe3ad83d3b1f387cd7848e25355d8c209a2927.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-02-22 03:25:11</t>
+  </si>
+  <si>
+    <t>2016-02-22 03:25:58</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2016-02-22 03:23:06</t>
   </si>
   <si>
     <t>2016-02-22 03:23:58</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.75fe3ad83d3b1f387cd7848e25355d8c209a2927.de-de.xlf</t>
   </si>
   <si>
+    <t>2016-02-22 03:25:24</t>
+  </si>
+  <si>
+    <t>2016-02-22 03:26:17</t>
+  </si>
+  <si>
+    <t>b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.de-de.xlf</t>
+  </si>
+  <si>
     <t>2016-02-22 03:23:20</t>
   </si>
   <si>
     <t>2016-02-22 03:24:20</t>
-  </si>
-  <si>
-    <t>b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -331,7 +343,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -340,7 +352,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>
@@ -420,19 +432,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>18</v>
@@ -446,19 +458,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>

--- a/ol-handback/OpenLocalizationTest/oltest/yufeih/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/yufeih/handback-status.xlsx
@@ -64,10 +64,10 @@
     <t>9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.75fe3ad83d3b1f387cd7848e25355d8c209a2927.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 03:25:11</t>
-  </si>
-  <si>
-    <t>2016-02-22 03:25:58</t>
+    <t>2016-02-22 03:26:58</t>
+  </si>
+  <si>
+    <t>2016-02-22 03:27:40</t>
   </si>
   <si>
     <t>Include</t>
@@ -85,10 +85,10 @@
     <t>9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.75fe3ad83d3b1f387cd7848e25355d8c209a2927.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 03:25:24</t>
-  </si>
-  <si>
-    <t>2016-02-22 03:26:17</t>
+    <t>2016-02-22 03:27:10</t>
+  </si>
+  <si>
+    <t>2016-02-22 03:28:00</t>
   </si>
   <si>
     <t>b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.de-de.xlf</t>
